--- a/整合結果/自由時報_財經/excel_by_week/2025_W21.xlsx
+++ b/整合結果/自由時報_財經/excel_by_week/2025_W21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>黃金高點下殺！「1關鍵決策」左右後市</t>
+          <t>黃金將飆破4500美元？專家：重大牛市才正要開始！</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5052075</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5052183</t>
         </is>
       </c>
     </row>
@@ -560,44 +560,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>50歲男子每週花1天經營副業 每月多出354萬元收入</t>
+          <t>桃市推「可負擔住宅」 讓年輕家庭買得起房子</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5052093</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>黃金將飆破4500美元？專家：重大牛市才正要開始！</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5052183</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>桃市推「可負擔住宅」 讓年輕家庭買得起房子</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>https://ec.ltn.com.tw/article/breakingnews/5052604</t>
         </is>
